--- a/output/0/tRNA-Gly-GCC-2-5.xlsx
+++ b/output/0/tRNA-Gly-GCC-2-5.xlsx
@@ -12,279 +12,228 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="84">
   <si>
     <t>chr16</t>
   </si>
   <si>
-    <t>70823245</t>
-  </si>
-  <si>
-    <t>70823268</t>
+    <t>70823427</t>
+  </si>
+  <si>
+    <t>70823450</t>
   </si>
   <si>
     <t>0</t>
   </si>
   <si>
+    <t>+</t>
+  </si>
+  <si>
+    <t>70823447</t>
+  </si>
+  <si>
+    <t>150,150,150</t>
+  </si>
+  <si>
+    <t>255,0,0</t>
+  </si>
+  <si>
+    <t>TAGAATTCTCGCCTGCCACG</t>
+  </si>
+  <si>
+    <t>CGG</t>
+  </si>
+  <si>
+    <t>This guide sequence is not unique in the genome. The specificity scores were not determined.</t>
+  </si>
+  <si>
+    <t>84% (61)</t>
+  </si>
+  <si>
+    <t>46% (43)</t>
+  </si>
+  <si>
+    <t>89</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>Sequence is not unique in genome</t>
+  </si>
+  <si>
+    <t>70823428</t>
+  </si>
+  <si>
+    <t>70823451</t>
+  </si>
+  <si>
+    <t>70823448</t>
+  </si>
+  <si>
+    <t>AGAATTCTCGCCTGCCACGC</t>
+  </si>
+  <si>
+    <t>GGG</t>
+  </si>
+  <si>
+    <t>78% (59)</t>
+  </si>
+  <si>
+    <t>77% (59)</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>71</t>
+  </si>
+  <si>
+    <t>70823431</t>
+  </si>
+  <si>
+    <t>70823454</t>
+  </si>
+  <si>
+    <t>ATTCTCGCCTGCCACGCGGG</t>
+  </si>
+  <si>
+    <t>AGG</t>
+  </si>
+  <si>
+    <t>81% (60)</t>
+  </si>
+  <si>
+    <t>67% (53)</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>70823436</t>
+  </si>
+  <si>
+    <t>70823459</t>
+  </si>
+  <si>
+    <t>70823456</t>
+  </si>
+  <si>
+    <t>CGCCTGCCACGCGGGAGGCC</t>
+  </si>
+  <si>
+    <t>6% (27)</t>
+  </si>
+  <si>
+    <t>50% (45)</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>59</t>
+  </si>
+  <si>
+    <t>70823437</t>
+  </si>
+  <si>
+    <t>70823460</t>
+  </si>
+  <si>
+    <t>70823457</t>
+  </si>
+  <si>
+    <t>GCCTGCCACGCGGGAGGCCC</t>
+  </si>
+  <si>
+    <t>16% (36)</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
+    <t>70823438</t>
+  </si>
+  <si>
+    <t>70823461</t>
+  </si>
+  <si>
     <t>-</t>
   </si>
   <si>
-    <t>70823248</t>
-  </si>
-  <si>
-    <t>150,150,150</t>
-  </si>
-  <si>
-    <t>255,0,0</t>
-  </si>
-  <si>
-    <t>CAGAGCAGGAGGGAGAAGGC</t>
-  </si>
-  <si>
-    <t>AGG</t>
-  </si>
-  <si>
-    <t>This guide sequence is not unique in the genome. The specificity scores were not determined.</t>
-  </si>
-  <si>
-    <t>53% (51)</t>
-  </si>
-  <si>
-    <t>74% (57)</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>69</t>
-  </si>
-  <si>
-    <t>Sequence is not unique in genome</t>
-  </si>
-  <si>
-    <t>70823256</t>
-  </si>
-  <si>
-    <t>70823279</t>
-  </si>
-  <si>
-    <t>70823259</t>
-  </si>
-  <si>
-    <t>80,80,80</t>
-  </si>
-  <si>
-    <t>CACTCAGGCTGCAGAGCAGG</t>
+    <t>70823441</t>
+  </si>
+  <si>
+    <t>ACCCGGGCCTCCCGCGTGGC</t>
+  </si>
+  <si>
+    <t>25% (41)</t>
+  </si>
+  <si>
+    <t>65% (52)</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>70823442</t>
+  </si>
+  <si>
+    <t>70823465</t>
+  </si>
+  <si>
+    <t>70823445</t>
+  </si>
+  <si>
+    <t>TCGAACCCGGGCCTCCCGCG</t>
+  </si>
+  <si>
+    <t>TGG</t>
+  </si>
+  <si>
+    <t>95% (67)</t>
+  </si>
+  <si>
+    <t>95% (77)</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t>70823449</t>
+  </si>
+  <si>
+    <t>70823472</t>
+  </si>
+  <si>
+    <t>70823469</t>
+  </si>
+  <si>
+    <t>GGAGGCCCGGGTTCGATTCC</t>
+  </si>
+  <si>
+    <t>14% (35)</t>
+  </si>
+  <si>
+    <t>39% (40)</t>
+  </si>
+  <si>
+    <t>70823477</t>
+  </si>
+  <si>
+    <t>ATTGGCCGGGAATCGAACCC</t>
   </si>
   <si>
     <t>59% (53)</t>
-  </si>
-  <si>
-    <t>84% (64)</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>62</t>
-  </si>
-  <si>
-    <t>MIT Spec. Score: 0, Doench 2016: 59%, Moreno-Mateos: 84%</t>
-  </si>
-  <si>
-    <t>70823427</t>
-  </si>
-  <si>
-    <t>70823450</t>
-  </si>
-  <si>
-    <t>+</t>
-  </si>
-  <si>
-    <t>70823447</t>
-  </si>
-  <si>
-    <t>TAGAATTCTCGCCTGCCACG</t>
-  </si>
-  <si>
-    <t>CGG</t>
-  </si>
-  <si>
-    <t>84% (61)</t>
-  </si>
-  <si>
-    <t>46% (43)</t>
-  </si>
-  <si>
-    <t>89</t>
-  </si>
-  <si>
-    <t>70</t>
-  </si>
-  <si>
-    <t>70823428</t>
-  </si>
-  <si>
-    <t>70823451</t>
-  </si>
-  <si>
-    <t>70823448</t>
-  </si>
-  <si>
-    <t>AGAATTCTCGCCTGCCACGC</t>
-  </si>
-  <si>
-    <t>GGG</t>
-  </si>
-  <si>
-    <t>78% (59)</t>
-  </si>
-  <si>
-    <t>77% (59)</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>71</t>
-  </si>
-  <si>
-    <t>70823431</t>
-  </si>
-  <si>
-    <t>70823454</t>
-  </si>
-  <si>
-    <t>ATTCTCGCCTGCCACGCGGG</t>
-  </si>
-  <si>
-    <t>81% (60)</t>
-  </si>
-  <si>
-    <t>67% (53)</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>64</t>
-  </si>
-  <si>
-    <t>70823436</t>
-  </si>
-  <si>
-    <t>70823459</t>
-  </si>
-  <si>
-    <t>70823456</t>
-  </si>
-  <si>
-    <t>CGCCTGCCACGCGGGAGGCC</t>
-  </si>
-  <si>
-    <t>6% (27)</t>
-  </si>
-  <si>
-    <t>50% (45)</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>59</t>
-  </si>
-  <si>
-    <t>70823437</t>
-  </si>
-  <si>
-    <t>70823460</t>
-  </si>
-  <si>
-    <t>70823457</t>
-  </si>
-  <si>
-    <t>GCCTGCCACGCGGGAGGCCC</t>
-  </si>
-  <si>
-    <t>16% (36)</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>58</t>
-  </si>
-  <si>
-    <t>70823438</t>
-  </si>
-  <si>
-    <t>70823461</t>
-  </si>
-  <si>
-    <t>70823441</t>
-  </si>
-  <si>
-    <t>ACCCGGGCCTCCCGCGTGGC</t>
-  </si>
-  <si>
-    <t>25% (41)</t>
-  </si>
-  <si>
-    <t>65% (52)</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>70823442</t>
-  </si>
-  <si>
-    <t>70823465</t>
-  </si>
-  <si>
-    <t>70823445</t>
-  </si>
-  <si>
-    <t>TCGAACCCGGGCCTCCCGCG</t>
-  </si>
-  <si>
-    <t>TGG</t>
-  </si>
-  <si>
-    <t>95% (67)</t>
-  </si>
-  <si>
-    <t>95% (77)</t>
-  </si>
-  <si>
-    <t>47</t>
-  </si>
-  <si>
-    <t>65</t>
-  </si>
-  <si>
-    <t>70823449</t>
-  </si>
-  <si>
-    <t>70823472</t>
-  </si>
-  <si>
-    <t>70823469</t>
-  </si>
-  <si>
-    <t>GGAGGCCCGGGTTCGATTCC</t>
-  </si>
-  <si>
-    <t>14% (35)</t>
-  </si>
-  <si>
-    <t>39% (40)</t>
-  </si>
-  <si>
-    <t>70823477</t>
-  </si>
-  <si>
-    <t>ATTGGCCGGGAATCGAACCC</t>
   </si>
   <si>
     <t>71% (55)</t>
@@ -359,7 +308,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:S12"/>
+  <dimension ref="A1:S10"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -382,10 +331,10 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s">
         <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>2</v>
       </c>
       <c r="H1" t="s">
         <v>6</v>
@@ -441,28 +390,28 @@
         <v>4</v>
       </c>
       <c r="F2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" t="s">
         <v>18</v>
       </c>
-      <c r="G2" t="s">
-        <v>17</v>
-      </c>
       <c r="H2" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="I2" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="J2" t="s">
         <v>7</v>
       </c>
       <c r="K2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L2" t="s">
         <v>20</v>
       </c>
-      <c r="L2" t="s">
-        <v>9</v>
-      </c>
       <c r="M2" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="N2" t="s">
         <v>21</v>
@@ -477,7 +426,7 @@
         <v>24</v>
       </c>
       <c r="R2" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="S2" t="s">
         <v>3</v>
@@ -488,22 +437,22 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" t="s">
         <v>26</v>
       </c>
-      <c r="C3" t="s">
-        <v>27</v>
-      </c>
       <c r="D3" t="s">
         <v>3</v>
       </c>
       <c r="E3" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="F3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G3" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="H3" t="s">
         <v>6</v>
@@ -515,25 +464,25 @@
         <v>7</v>
       </c>
       <c r="K3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="L3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="M3" t="s">
         <v>10</v>
       </c>
       <c r="N3" t="s">
+        <v>29</v>
+      </c>
+      <c r="O3" t="s">
+        <v>30</v>
+      </c>
+      <c r="P3" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q3" t="s">
         <v>32</v>
-      </c>
-      <c r="O3" t="s">
-        <v>33</v>
-      </c>
-      <c r="P3" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>35</v>
       </c>
       <c r="R3" t="s">
         <v>15</v>
@@ -547,22 +496,22 @@
         <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D4" t="s">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="F4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H4" t="s">
         <v>6</v>
@@ -574,25 +523,25 @@
         <v>7</v>
       </c>
       <c r="K4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="L4" t="s">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="M4" t="s">
         <v>10</v>
       </c>
       <c r="N4" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="O4" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="P4" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="Q4" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="R4" t="s">
         <v>15</v>
@@ -606,22 +555,22 @@
         <v>0</v>
       </c>
       <c r="B5" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C5" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D5" t="s">
         <v>3</v>
       </c>
       <c r="E5" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="F5" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G5" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="H5" t="s">
         <v>6</v>
@@ -633,25 +582,25 @@
         <v>7</v>
       </c>
       <c r="K5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="L5" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="M5" t="s">
         <v>10</v>
       </c>
       <c r="N5" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="O5" t="s">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="P5" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="Q5" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="R5" t="s">
         <v>15</v>
@@ -665,22 +614,22 @@
         <v>0</v>
       </c>
       <c r="B6" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C6" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D6" t="s">
         <v>3</v>
       </c>
       <c r="E6" t="s">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="F6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G6" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="H6" t="s">
         <v>6</v>
@@ -692,25 +641,25 @@
         <v>7</v>
       </c>
       <c r="K6" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="L6" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="M6" t="s">
         <v>10</v>
       </c>
       <c r="N6" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="O6" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="P6" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="Q6" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="R6" t="s">
         <v>15</v>
@@ -724,22 +673,22 @@
         <v>0</v>
       </c>
       <c r="B7" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C7" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D7" t="s">
         <v>3</v>
       </c>
       <c r="E7" t="s">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="F7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G7" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="H7" t="s">
         <v>6</v>
@@ -751,25 +700,25 @@
         <v>7</v>
       </c>
       <c r="K7" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="L7" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="M7" t="s">
         <v>10</v>
       </c>
       <c r="N7" t="s">
+        <v>61</v>
+      </c>
+      <c r="O7" t="s">
+        <v>62</v>
+      </c>
+      <c r="P7" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q7" t="s">
         <v>64</v>
-      </c>
-      <c r="O7" t="s">
-        <v>42</v>
-      </c>
-      <c r="P7" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>66</v>
       </c>
       <c r="R7" t="s">
         <v>15</v>
@@ -783,10 +732,10 @@
         <v>0</v>
       </c>
       <c r="B8" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C8" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D8" t="s">
         <v>3</v>
@@ -795,10 +744,10 @@
         <v>4</v>
       </c>
       <c r="F8" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="G8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H8" t="s">
         <v>6</v>
@@ -810,7 +759,7 @@
         <v>7</v>
       </c>
       <c r="K8" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="L8" t="s">
         <v>9</v>
@@ -819,16 +768,16 @@
         <v>10</v>
       </c>
       <c r="N8" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="O8" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="P8" t="s">
-        <v>73</v>
+        <v>46</v>
       </c>
       <c r="Q8" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="R8" t="s">
         <v>15</v>
@@ -842,22 +791,22 @@
         <v>0</v>
       </c>
       <c r="B9" t="s">
-        <v>74</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D9" t="s">
         <v>3</v>
       </c>
       <c r="E9" t="s">
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="F9" t="s">
-        <v>76</v>
+        <v>43</v>
       </c>
       <c r="G9" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="H9" t="s">
         <v>6</v>
@@ -869,25 +818,25 @@
         <v>7</v>
       </c>
       <c r="K9" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="L9" t="s">
-        <v>78</v>
+        <v>20</v>
       </c>
       <c r="M9" t="s">
         <v>10</v>
       </c>
       <c r="N9" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="O9" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="P9" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="Q9" t="s">
-        <v>82</v>
+        <v>47</v>
       </c>
       <c r="R9" t="s">
         <v>15</v>
@@ -901,22 +850,22 @@
         <v>0</v>
       </c>
       <c r="B10" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="C10" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="D10" t="s">
         <v>3</v>
       </c>
       <c r="E10" t="s">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="F10" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="G10" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H10" t="s">
         <v>6</v>
@@ -928,148 +877,30 @@
         <v>7</v>
       </c>
       <c r="K10" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="L10" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="M10" t="s">
         <v>10</v>
       </c>
       <c r="N10" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="O10" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="P10" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="Q10" t="s">
-        <v>59</v>
+        <v>83</v>
       </c>
       <c r="R10" t="s">
         <v>15</v>
       </c>
       <c r="S10" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B11" t="s">
-        <v>46</v>
-      </c>
-      <c r="C11" t="s">
-        <v>89</v>
-      </c>
-      <c r="D11" t="s">
-        <v>3</v>
-      </c>
-      <c r="E11" t="s">
-        <v>4</v>
-      </c>
-      <c r="F11" t="s">
-        <v>62</v>
-      </c>
-      <c r="G11" t="s">
-        <v>89</v>
-      </c>
-      <c r="H11" t="s">
-        <v>6</v>
-      </c>
-      <c r="I11" t="s">
-        <v>6</v>
-      </c>
-      <c r="J11" t="s">
-        <v>7</v>
-      </c>
-      <c r="K11" t="s">
-        <v>90</v>
-      </c>
-      <c r="L11" t="s">
-        <v>40</v>
-      </c>
-      <c r="M11" t="s">
-        <v>10</v>
-      </c>
-      <c r="N11" t="s">
-        <v>21</v>
-      </c>
-      <c r="O11" t="s">
-        <v>91</v>
-      </c>
-      <c r="P11" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>66</v>
-      </c>
-      <c r="R11" t="s">
-        <v>15</v>
-      </c>
-      <c r="S11" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B12" t="s">
-        <v>93</v>
-      </c>
-      <c r="C12" t="s">
-        <v>94</v>
-      </c>
-      <c r="D12" t="s">
-        <v>3</v>
-      </c>
-      <c r="E12" t="s">
-        <v>4</v>
-      </c>
-      <c r="F12" t="s">
-        <v>95</v>
-      </c>
-      <c r="G12" t="s">
-        <v>94</v>
-      </c>
-      <c r="H12" t="s">
-        <v>6</v>
-      </c>
-      <c r="I12" t="s">
-        <v>6</v>
-      </c>
-      <c r="J12" t="s">
-        <v>7</v>
-      </c>
-      <c r="K12" t="s">
-        <v>96</v>
-      </c>
-      <c r="L12" t="s">
-        <v>31</v>
-      </c>
-      <c r="M12" t="s">
-        <v>10</v>
-      </c>
-      <c r="N12" t="s">
-        <v>97</v>
-      </c>
-      <c r="O12" t="s">
-        <v>98</v>
-      </c>
-      <c r="P12" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>100</v>
-      </c>
-      <c r="R12" t="s">
-        <v>15</v>
-      </c>
-      <c r="S12" t="s">
         <v>3</v>
       </c>
     </row>
